--- a/无穷数论-3.0.xlsx
+++ b/无穷数论-3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/scifi-movel-generator-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BAA49-BECA-DE43-80CF-01148B1FFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F4667-EF9B-7A41-9F82-642ADA20B2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{9FF6FCCF-028A-4F4B-89C1-B19626EE5311}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="2" xr2:uid="{9FF6FCCF-028A-4F4B-89C1-B19626EE5311}"/>
   </bookViews>
   <sheets>
     <sheet name="无穷数论" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="430">
   <si>
     <t>∞</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1750,12 +1750,88 @@
     <t>CCCCCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>认知（对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟（记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涌现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G (golly)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R (ready)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F (分形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M (数学)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2131,8 +2207,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2472,6 +2556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,7 +2954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3863,6 +3953,12 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="49" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9976,29 +10072,112 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFE01E8-AADA-0849-822F-456A61BFA78C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="400" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="231" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="333" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="334" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="D1" s="333" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="334" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="333" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="334" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="333" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="334" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="333" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1" s="334" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="334" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="334" t="s">
         <v>253</v>
       </c>
+      <c r="D2" s="334" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="334" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="334" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2" s="334" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="334" t="s">
+        <v>420</v>
+      </c>
+      <c r="K2" s="334" t="s">
+        <v>421</v>
+      </c>
+      <c r="M2" s="334" t="s">
+        <v>424</v>
+      </c>
+      <c r="N2" s="334" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="333" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="334" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="333"/>
+      <c r="E4" s="334"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="334"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="334"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="334"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="334" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="334" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="G5" s="334"/>
+      <c r="H5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="334"/>
+      <c r="M5" s="334"/>
+      <c r="N5" s="334"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10248,23 +10427,23 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E2" s="362">
+      <c r="E2" s="364">
         <v>2</v>
       </c>
-      <c r="F2" s="366" t="s">
+      <c r="F2" s="368" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="366">
+      <c r="G2" s="368">
         <v>6</v>
       </c>
-      <c r="H2" s="362" t="s">
+      <c r="H2" s="364" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="362">
+      <c r="I2" s="364">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="J2" s="362">
+      <c r="J2" s="364">
         <v>64</v>
       </c>
       <c r="L2" s="306">
@@ -10299,12 +10478,12 @@
       <c r="C3" s="317">
         <v>0</v>
       </c>
-      <c r="E3" s="362"/>
-      <c r="F3" s="366"/>
-      <c r="G3" s="366"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
       <c r="L3" s="308">
         <v>0</v>
       </c>
@@ -10337,12 +10516,12 @@
       <c r="C4" s="317">
         <v>1</v>
       </c>
-      <c r="E4" s="362"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
+      <c r="E4" s="364"/>
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="364"/>
+      <c r="J4" s="364"/>
       <c r="L4" s="315">
         <v>1</v>
       </c>
@@ -10373,12 +10552,12 @@
         <v>343</v>
       </c>
       <c r="C5" s="317"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="366"/>
-      <c r="G5" s="366"/>
-      <c r="H5" s="362"/>
-      <c r="I5" s="362"/>
-      <c r="J5" s="362"/>
+      <c r="E5" s="364"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="364"/>
+      <c r="I5" s="364"/>
+      <c r="J5" s="364"/>
       <c r="L5" s="315">
         <v>2</v>
       </c>
@@ -10729,43 +10908,43 @@
       </c>
       <c r="N17" s="332" t="str">
         <f ca="1">_xlfn.CONCAT(O17:W17)</f>
-        <v>ΔΥ∏Ρ∧ΜΚΑΦ</v>
+        <v>ΖΝΙΩΨΟΟΟΒ</v>
       </c>
       <c r="O17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">IFERROR(INDIRECT(MID($M17,O$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,O$16,1)&amp;($A$2)))),"")</f>
-        <v>Δ</v>
+        <v>Ζ</v>
       </c>
       <c r="P17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">IFERROR(INDIRECT(MID($M17,P$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,P$16,1)&amp;($A$2)))),"")</f>
-        <v>Υ</v>
+        <v>Ν</v>
       </c>
       <c r="Q17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">IFERROR(INDIRECT(MID($M17,Q$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,Q$16,1)&amp;($A$2)))),"")</f>
-        <v>∏</v>
+        <v>Ι</v>
       </c>
       <c r="R17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">IFERROR(INDIRECT(MID($M17,R$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,R$16,1)&amp;($A$2)))),"")</f>
-        <v>Ρ</v>
+        <v>Ω</v>
       </c>
       <c r="S17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">IFERROR(INDIRECT(MID($M17,S$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,S$16,1)&amp;($A$2)))),"")</f>
-        <v>∧</v>
+        <v>Ψ</v>
       </c>
       <c r="T17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">IFERROR(INDIRECT(MID($M17,T$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,T$16,1)&amp;($A$2)))),"")</f>
-        <v>Μ</v>
+        <v>Ο</v>
       </c>
       <c r="U17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">IFERROR(INDIRECT(MID($M17,U$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,U$16,1)&amp;($A$2)))),"")</f>
-        <v>Κ</v>
+        <v>Ο</v>
       </c>
       <c r="V17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="V17" ca="1">IFERROR(INDIRECT(MID($M17,V$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,V$16,1)&amp;($A$2)))),"")</f>
-        <v>Α</v>
+        <v>Ο</v>
       </c>
       <c r="W17" s="329" t="str" cm="1">
         <f t="array" aca="1" ref="W17" ca="1">IFERROR(INDIRECT(MID($M17,W$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M17,W$16,1)&amp;($A$2)))),"")</f>
-        <v>Φ</v>
+        <v>Β</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="78" customHeight="1">
@@ -10785,15 +10964,15 @@
       </c>
       <c r="O18" s="329" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">IFERROR(INDIRECT(MID($M18,O$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M18,O$16,1)&amp;($A$2)))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="329" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">IFERROR(INDIRECT(MID($M18,P$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M18,P$16,1)&amp;($A$2)))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="329" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">IFERROR(INDIRECT(MID($M18,Q$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M18,Q$16,1)&amp;($A$2)))),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="329" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">IFERROR(INDIRECT(MID($M18,R$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M18,R$16,1)&amp;($A$2)))),"")</f>
@@ -10805,7 +10984,7 @@
       </c>
       <c r="T18" s="329" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">IFERROR(INDIRECT(MID($M18,T$16,1)&amp;RANDBETWEEN($A$2+1,INDIRECT(MID($M18,T$16,1)&amp;($A$2)))),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="329"/>
       <c r="V18" s="329"/>
@@ -10846,112 +11025,112 @@
         <v>358</v>
       </c>
       <c r="C22" s="317"/>
-      <c r="E22" s="363">
+      <c r="E22" s="365">
         <v>24</v>
       </c>
-      <c r="F22" s="364" t="s">
+      <c r="F22" s="366" t="s">
         <v>397</v>
       </c>
-      <c r="G22" s="364">
+      <c r="G22" s="366">
         <v>9</v>
       </c>
-      <c r="H22" s="363" t="s">
+      <c r="H22" s="365" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="365">
+      <c r="I22" s="367">
         <f>POWER(24,9)</f>
         <v>2641807540224</v>
       </c>
-      <c r="J22" s="365">
+      <c r="J22" s="367">
         <v>2641807540224</v>
       </c>
-      <c r="L22" s="361" t="str">
+      <c r="L22" s="363" t="str">
         <f ca="1">IF(N18&lt;=3,N17,"神很生气，不吉利，无法显示")</f>
         <v>神很生气，不吉利，无法显示</v>
       </c>
-      <c r="M22" s="361"/>
-      <c r="N22" s="361"/>
-      <c r="O22" s="361"/>
-      <c r="P22" s="361"/>
-      <c r="Q22" s="361"/>
-      <c r="R22" s="361"/>
-      <c r="S22" s="361"/>
-      <c r="T22" s="361"/>
-      <c r="U22" s="361"/>
-      <c r="V22" s="361"/>
-      <c r="W22" s="361"/>
+      <c r="M22" s="363"/>
+      <c r="N22" s="363"/>
+      <c r="O22" s="363"/>
+      <c r="P22" s="363"/>
+      <c r="Q22" s="363"/>
+      <c r="R22" s="363"/>
+      <c r="S22" s="363"/>
+      <c r="T22" s="363"/>
+      <c r="U22" s="363"/>
+      <c r="V22" s="363"/>
+      <c r="W22" s="363"/>
     </row>
     <row r="23" spans="2:23" ht="78" customHeight="1">
       <c r="B23" s="317" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="317"/>
-      <c r="E23" s="363"/>
-      <c r="F23" s="364"/>
-      <c r="G23" s="364"/>
-      <c r="H23" s="363"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="365"/>
-      <c r="L23" s="361"/>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
-      <c r="O23" s="361"/>
-      <c r="P23" s="361"/>
-      <c r="Q23" s="361"/>
-      <c r="R23" s="361"/>
-      <c r="S23" s="361"/>
-      <c r="T23" s="361"/>
-      <c r="U23" s="361"/>
-      <c r="V23" s="361"/>
-      <c r="W23" s="361"/>
+      <c r="E23" s="365"/>
+      <c r="F23" s="366"/>
+      <c r="G23" s="366"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="367"/>
+      <c r="L23" s="363"/>
+      <c r="M23" s="363"/>
+      <c r="N23" s="363"/>
+      <c r="O23" s="363"/>
+      <c r="P23" s="363"/>
+      <c r="Q23" s="363"/>
+      <c r="R23" s="363"/>
+      <c r="S23" s="363"/>
+      <c r="T23" s="363"/>
+      <c r="U23" s="363"/>
+      <c r="V23" s="363"/>
+      <c r="W23" s="363"/>
     </row>
     <row r="24" spans="2:23" ht="78" customHeight="1">
       <c r="B24" s="317" t="s">
         <v>359</v>
       </c>
       <c r="C24" s="317"/>
-      <c r="E24" s="363"/>
-      <c r="F24" s="364"/>
-      <c r="G24" s="364"/>
-      <c r="H24" s="363"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="L24" s="361"/>
-      <c r="M24" s="361"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="361"/>
-      <c r="P24" s="361"/>
-      <c r="Q24" s="361"/>
-      <c r="R24" s="361"/>
-      <c r="S24" s="361"/>
-      <c r="T24" s="361"/>
-      <c r="U24" s="361"/>
-      <c r="V24" s="361"/>
-      <c r="W24" s="361"/>
+      <c r="E24" s="365"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="365"/>
+      <c r="I24" s="367"/>
+      <c r="J24" s="367"/>
+      <c r="L24" s="363"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="363"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363"/>
+      <c r="Q24" s="363"/>
+      <c r="R24" s="363"/>
+      <c r="S24" s="363"/>
+      <c r="T24" s="363"/>
+      <c r="U24" s="363"/>
+      <c r="V24" s="363"/>
+      <c r="W24" s="363"/>
     </row>
     <row r="25" spans="2:23" ht="78" customHeight="1">
       <c r="B25" s="317" t="s">
         <v>219</v>
       </c>
       <c r="C25" s="317"/>
-      <c r="E25" s="363"/>
-      <c r="F25" s="364"/>
-      <c r="G25" s="364"/>
-      <c r="H25" s="363"/>
-      <c r="I25" s="365"/>
-      <c r="J25" s="365"/>
-      <c r="L25" s="361"/>
-      <c r="M25" s="361"/>
-      <c r="N25" s="361"/>
-      <c r="O25" s="361"/>
-      <c r="P25" s="361"/>
-      <c r="Q25" s="361"/>
-      <c r="R25" s="361"/>
-      <c r="S25" s="361"/>
-      <c r="T25" s="361"/>
-      <c r="U25" s="361"/>
-      <c r="V25" s="361"/>
-      <c r="W25" s="361"/>
+      <c r="E25" s="365"/>
+      <c r="F25" s="366"/>
+      <c r="G25" s="366"/>
+      <c r="H25" s="365"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
+      <c r="L25" s="363"/>
+      <c r="M25" s="363"/>
+      <c r="N25" s="363"/>
+      <c r="O25" s="363"/>
+      <c r="P25" s="363"/>
+      <c r="Q25" s="363"/>
+      <c r="R25" s="363"/>
+      <c r="S25" s="363"/>
+      <c r="T25" s="363"/>
+      <c r="U25" s="363"/>
+      <c r="V25" s="363"/>
+      <c r="W25" s="363"/>
     </row>
     <row r="26" spans="2:23" ht="78" customHeight="1" thickBot="1">
       <c r="B26" s="324" t="s">
@@ -12272,7 +12451,7 @@
       <c r="U21" s="242"/>
       <c r="V21" s="243"/>
       <c r="W21" s="244"/>
-      <c r="X21" s="336" t="s">
+      <c r="X21" s="338" t="s">
         <v>330</v>
       </c>
       <c r="Y21" s="245"/>
@@ -12295,7 +12474,7 @@
       <c r="AP21" s="262"/>
       <c r="AQ21" s="263"/>
       <c r="AR21" s="264"/>
-      <c r="AS21" s="333" t="s">
+      <c r="AS21" s="335" t="s">
         <v>329</v>
       </c>
       <c r="AT21" s="265"/>
@@ -12323,7 +12502,7 @@
       <c r="U22" s="205"/>
       <c r="V22" s="206"/>
       <c r="W22" s="207"/>
-      <c r="X22" s="337"/>
+      <c r="X22" s="339"/>
       <c r="Y22" s="208"/>
       <c r="Z22" s="209"/>
       <c r="AA22" s="88"/>
@@ -12344,7 +12523,7 @@
       <c r="AP22" s="224"/>
       <c r="AQ22" s="97"/>
       <c r="AR22" s="98"/>
-      <c r="AS22" s="334"/>
+      <c r="AS22" s="336"/>
       <c r="AT22" s="267"/>
     </row>
     <row r="23" spans="2:46" ht="43" customHeight="1" thickBot="1">
@@ -12370,7 +12549,7 @@
       <c r="U23" s="205"/>
       <c r="V23" s="206"/>
       <c r="W23" s="207"/>
-      <c r="X23" s="337"/>
+      <c r="X23" s="339"/>
       <c r="Y23" s="208"/>
       <c r="Z23" s="209"/>
       <c r="AA23" s="88"/>
@@ -12391,7 +12570,7 @@
       <c r="AP23" s="224"/>
       <c r="AQ23" s="97"/>
       <c r="AR23" s="98"/>
-      <c r="AS23" s="334"/>
+      <c r="AS23" s="336"/>
       <c r="AT23" s="267"/>
     </row>
     <row r="24" spans="2:46" ht="43" customHeight="1" thickBot="1">
@@ -12417,7 +12596,7 @@
       <c r="U24" s="127"/>
       <c r="V24" s="128"/>
       <c r="W24" s="129"/>
-      <c r="X24" s="338"/>
+      <c r="X24" s="340"/>
       <c r="Y24" s="131"/>
       <c r="Z24" s="276"/>
       <c r="AA24" s="277"/>
@@ -12438,7 +12617,7 @@
       <c r="AP24" s="280"/>
       <c r="AQ24" s="281"/>
       <c r="AR24" s="282"/>
-      <c r="AS24" s="335"/>
+      <c r="AS24" s="337"/>
       <c r="AT24" s="267"/>
     </row>
     <row r="25" spans="2:46" ht="43" customHeight="1" thickBot="1">
@@ -12504,8 +12683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAAEEE8-1C5B-7546-BCA5-34D9D38880F3}">
   <dimension ref="B2:V31"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="208" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -13182,9 +13361,9 @@
       <c r="D28" s="44"/>
       <c r="E28" s="97"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="46"/>
       <c r="K28" s="97"/>
       <c r="L28" s="97"/>
@@ -13205,9 +13384,9 @@
       <c r="D29" s="97"/>
       <c r="E29" s="44"/>
       <c r="F29" s="82"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="44"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="97"/>
       <c r="J29" s="82"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
@@ -14195,7 +14374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688E392F-77B8-FC46-81C8-2D1FB0F42362}">
   <dimension ref="B1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="93" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
@@ -19631,26 +19810,26 @@
       <c r="Q58" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="V58" s="345" t="s">
+      <c r="V58" s="347" t="s">
         <v>238</v>
       </c>
-      <c r="W58" s="346"/>
-      <c r="X58" s="346"/>
-      <c r="Y58" s="346"/>
-      <c r="Z58" s="346"/>
-      <c r="AA58" s="346"/>
-      <c r="AB58" s="346"/>
-      <c r="AC58" s="346"/>
-      <c r="AD58" s="346"/>
-      <c r="AE58" s="346"/>
-      <c r="AF58" s="346"/>
-      <c r="AG58" s="346"/>
-      <c r="AH58" s="346"/>
-      <c r="AI58" s="346"/>
-      <c r="AJ58" s="346"/>
-      <c r="AK58" s="346"/>
-      <c r="AL58" s="346"/>
-      <c r="AM58" s="347"/>
+      <c r="W58" s="348"/>
+      <c r="X58" s="348"/>
+      <c r="Y58" s="348"/>
+      <c r="Z58" s="348"/>
+      <c r="AA58" s="348"/>
+      <c r="AB58" s="348"/>
+      <c r="AC58" s="348"/>
+      <c r="AD58" s="348"/>
+      <c r="AE58" s="348"/>
+      <c r="AF58" s="348"/>
+      <c r="AG58" s="348"/>
+      <c r="AH58" s="348"/>
+      <c r="AI58" s="348"/>
+      <c r="AJ58" s="348"/>
+      <c r="AK58" s="348"/>
+      <c r="AL58" s="348"/>
+      <c r="AM58" s="349"/>
     </row>
     <row r="59" spans="1:69" ht="18" customHeight="1">
       <c r="J59" s="150"/>
@@ -19717,26 +19896,26 @@
       <c r="Q60" s="158">
         <v>0</v>
       </c>
-      <c r="V60" s="348" t="s">
+      <c r="V60" s="350" t="s">
         <v>239</v>
       </c>
-      <c r="W60" s="349"/>
-      <c r="X60" s="349"/>
-      <c r="Y60" s="349"/>
-      <c r="Z60" s="349"/>
-      <c r="AA60" s="349"/>
-      <c r="AB60" s="349"/>
-      <c r="AC60" s="349"/>
-      <c r="AD60" s="349"/>
-      <c r="AE60" s="349"/>
-      <c r="AF60" s="349"/>
-      <c r="AG60" s="349"/>
-      <c r="AH60" s="349"/>
-      <c r="AI60" s="349"/>
-      <c r="AJ60" s="349"/>
-      <c r="AK60" s="349"/>
-      <c r="AL60" s="349"/>
-      <c r="AM60" s="350"/>
+      <c r="W60" s="351"/>
+      <c r="X60" s="351"/>
+      <c r="Y60" s="351"/>
+      <c r="Z60" s="351"/>
+      <c r="AA60" s="351"/>
+      <c r="AB60" s="351"/>
+      <c r="AC60" s="351"/>
+      <c r="AD60" s="351"/>
+      <c r="AE60" s="351"/>
+      <c r="AF60" s="351"/>
+      <c r="AG60" s="351"/>
+      <c r="AH60" s="351"/>
+      <c r="AI60" s="351"/>
+      <c r="AJ60" s="351"/>
+      <c r="AK60" s="351"/>
+      <c r="AL60" s="351"/>
+      <c r="AM60" s="352"/>
       <c r="AN60" s="5"/>
     </row>
     <row r="61" spans="1:69" ht="18" customHeight="1">
@@ -19762,26 +19941,26 @@
       <c r="Q61" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="V61" s="348" t="s">
+      <c r="V61" s="350" t="s">
         <v>240</v>
       </c>
-      <c r="W61" s="349"/>
-      <c r="X61" s="349"/>
-      <c r="Y61" s="349"/>
-      <c r="Z61" s="349"/>
-      <c r="AA61" s="349"/>
-      <c r="AB61" s="349"/>
-      <c r="AC61" s="349"/>
-      <c r="AD61" s="349"/>
-      <c r="AE61" s="349"/>
-      <c r="AF61" s="349"/>
-      <c r="AG61" s="349"/>
-      <c r="AH61" s="349"/>
-      <c r="AI61" s="349"/>
-      <c r="AJ61" s="349"/>
-      <c r="AK61" s="349"/>
-      <c r="AL61" s="349"/>
-      <c r="AM61" s="350"/>
+      <c r="W61" s="351"/>
+      <c r="X61" s="351"/>
+      <c r="Y61" s="351"/>
+      <c r="Z61" s="351"/>
+      <c r="AA61" s="351"/>
+      <c r="AB61" s="351"/>
+      <c r="AC61" s="351"/>
+      <c r="AD61" s="351"/>
+      <c r="AE61" s="351"/>
+      <c r="AF61" s="351"/>
+      <c r="AG61" s="351"/>
+      <c r="AH61" s="351"/>
+      <c r="AI61" s="351"/>
+      <c r="AJ61" s="351"/>
+      <c r="AK61" s="351"/>
+      <c r="AL61" s="351"/>
+      <c r="AM61" s="352"/>
     </row>
     <row r="62" spans="1:69" ht="18" customHeight="1">
       <c r="J62" s="153"/>
@@ -19806,26 +19985,26 @@
       <c r="Q62" s="158">
         <v>0</v>
       </c>
-      <c r="V62" s="348" t="s">
+      <c r="V62" s="350" t="s">
         <v>241</v>
       </c>
-      <c r="W62" s="349"/>
-      <c r="X62" s="349"/>
-      <c r="Y62" s="349"/>
-      <c r="Z62" s="349"/>
-      <c r="AA62" s="349"/>
-      <c r="AB62" s="349"/>
-      <c r="AC62" s="349"/>
-      <c r="AD62" s="349"/>
-      <c r="AE62" s="349"/>
-      <c r="AF62" s="349"/>
-      <c r="AG62" s="349"/>
-      <c r="AH62" s="349"/>
-      <c r="AI62" s="349"/>
-      <c r="AJ62" s="349"/>
-      <c r="AK62" s="349"/>
-      <c r="AL62" s="349"/>
-      <c r="AM62" s="350"/>
+      <c r="W62" s="351"/>
+      <c r="X62" s="351"/>
+      <c r="Y62" s="351"/>
+      <c r="Z62" s="351"/>
+      <c r="AA62" s="351"/>
+      <c r="AB62" s="351"/>
+      <c r="AC62" s="351"/>
+      <c r="AD62" s="351"/>
+      <c r="AE62" s="351"/>
+      <c r="AF62" s="351"/>
+      <c r="AG62" s="351"/>
+      <c r="AH62" s="351"/>
+      <c r="AI62" s="351"/>
+      <c r="AJ62" s="351"/>
+      <c r="AK62" s="351"/>
+      <c r="AL62" s="351"/>
+      <c r="AM62" s="352"/>
     </row>
     <row r="63" spans="1:69" ht="18" customHeight="1" thickBot="1">
       <c r="J63" s="154"/>
@@ -19850,48 +20029,48 @@
       <c r="Q63" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="V63" s="348" t="s">
+      <c r="V63" s="350" t="s">
         <v>242</v>
       </c>
-      <c r="W63" s="349"/>
-      <c r="X63" s="349"/>
-      <c r="Y63" s="349"/>
-      <c r="Z63" s="349"/>
-      <c r="AA63" s="349"/>
-      <c r="AB63" s="349"/>
-      <c r="AC63" s="349"/>
-      <c r="AD63" s="349"/>
-      <c r="AE63" s="349"/>
-      <c r="AF63" s="349"/>
-      <c r="AG63" s="349"/>
-      <c r="AH63" s="349"/>
-      <c r="AI63" s="349"/>
-      <c r="AJ63" s="349"/>
-      <c r="AK63" s="349"/>
-      <c r="AL63" s="349"/>
-      <c r="AM63" s="350"/>
+      <c r="W63" s="351"/>
+      <c r="X63" s="351"/>
+      <c r="Y63" s="351"/>
+      <c r="Z63" s="351"/>
+      <c r="AA63" s="351"/>
+      <c r="AB63" s="351"/>
+      <c r="AC63" s="351"/>
+      <c r="AD63" s="351"/>
+      <c r="AE63" s="351"/>
+      <c r="AF63" s="351"/>
+      <c r="AG63" s="351"/>
+      <c r="AH63" s="351"/>
+      <c r="AI63" s="351"/>
+      <c r="AJ63" s="351"/>
+      <c r="AK63" s="351"/>
+      <c r="AL63" s="351"/>
+      <c r="AM63" s="352"/>
     </row>
     <row r="64" spans="1:69" ht="18" customHeight="1">
-      <c r="V64" s="348" t="s">
+      <c r="V64" s="350" t="s">
         <v>243</v>
       </c>
-      <c r="W64" s="349"/>
-      <c r="X64" s="349"/>
-      <c r="Y64" s="349"/>
-      <c r="Z64" s="349"/>
-      <c r="AA64" s="349"/>
-      <c r="AB64" s="349"/>
-      <c r="AC64" s="349"/>
-      <c r="AD64" s="349"/>
-      <c r="AE64" s="349"/>
-      <c r="AF64" s="349"/>
-      <c r="AG64" s="349"/>
-      <c r="AH64" s="349"/>
-      <c r="AI64" s="349"/>
-      <c r="AJ64" s="349"/>
-      <c r="AK64" s="349"/>
-      <c r="AL64" s="349"/>
-      <c r="AM64" s="350"/>
+      <c r="W64" s="351"/>
+      <c r="X64" s="351"/>
+      <c r="Y64" s="351"/>
+      <c r="Z64" s="351"/>
+      <c r="AA64" s="351"/>
+      <c r="AB64" s="351"/>
+      <c r="AC64" s="351"/>
+      <c r="AD64" s="351"/>
+      <c r="AE64" s="351"/>
+      <c r="AF64" s="351"/>
+      <c r="AG64" s="351"/>
+      <c r="AH64" s="351"/>
+      <c r="AI64" s="351"/>
+      <c r="AJ64" s="351"/>
+      <c r="AK64" s="351"/>
+      <c r="AL64" s="351"/>
+      <c r="AM64" s="352"/>
     </row>
     <row r="65" spans="22:39" ht="18" customHeight="1">
       <c r="V65" s="167"/>
@@ -19914,46 +20093,46 @@
       <c r="AM65" s="169"/>
     </row>
     <row r="66" spans="22:39" ht="18" customHeight="1">
-      <c r="V66" s="339" t="s">
+      <c r="V66" s="341" t="s">
         <v>249</v>
       </c>
-      <c r="W66" s="340"/>
-      <c r="X66" s="340"/>
-      <c r="Y66" s="340"/>
-      <c r="Z66" s="340"/>
-      <c r="AA66" s="340"/>
-      <c r="AB66" s="340"/>
-      <c r="AC66" s="340"/>
-      <c r="AD66" s="340"/>
-      <c r="AE66" s="340"/>
-      <c r="AF66" s="340"/>
-      <c r="AG66" s="340"/>
-      <c r="AH66" s="340"/>
-      <c r="AI66" s="340"/>
-      <c r="AJ66" s="340"/>
-      <c r="AK66" s="340"/>
-      <c r="AL66" s="340"/>
-      <c r="AM66" s="341"/>
+      <c r="W66" s="342"/>
+      <c r="X66" s="342"/>
+      <c r="Y66" s="342"/>
+      <c r="Z66" s="342"/>
+      <c r="AA66" s="342"/>
+      <c r="AB66" s="342"/>
+      <c r="AC66" s="342"/>
+      <c r="AD66" s="342"/>
+      <c r="AE66" s="342"/>
+      <c r="AF66" s="342"/>
+      <c r="AG66" s="342"/>
+      <c r="AH66" s="342"/>
+      <c r="AI66" s="342"/>
+      <c r="AJ66" s="342"/>
+      <c r="AK66" s="342"/>
+      <c r="AL66" s="342"/>
+      <c r="AM66" s="343"/>
     </row>
     <row r="67" spans="22:39" ht="18" customHeight="1" thickBot="1">
-      <c r="V67" s="342"/>
-      <c r="W67" s="343"/>
-      <c r="X67" s="343"/>
-      <c r="Y67" s="343"/>
-      <c r="Z67" s="343"/>
-      <c r="AA67" s="343"/>
-      <c r="AB67" s="343"/>
-      <c r="AC67" s="343"/>
-      <c r="AD67" s="343"/>
-      <c r="AE67" s="343"/>
-      <c r="AF67" s="343"/>
-      <c r="AG67" s="343"/>
-      <c r="AH67" s="343"/>
-      <c r="AI67" s="343"/>
-      <c r="AJ67" s="343"/>
-      <c r="AK67" s="343"/>
-      <c r="AL67" s="343"/>
-      <c r="AM67" s="344"/>
+      <c r="V67" s="344"/>
+      <c r="W67" s="345"/>
+      <c r="X67" s="345"/>
+      <c r="Y67" s="345"/>
+      <c r="Z67" s="345"/>
+      <c r="AA67" s="345"/>
+      <c r="AB67" s="345"/>
+      <c r="AC67" s="345"/>
+      <c r="AD67" s="345"/>
+      <c r="AE67" s="345"/>
+      <c r="AF67" s="345"/>
+      <c r="AG67" s="345"/>
+      <c r="AH67" s="345"/>
+      <c r="AI67" s="345"/>
+      <c r="AJ67" s="345"/>
+      <c r="AK67" s="345"/>
+      <c r="AL67" s="345"/>
+      <c r="AM67" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -19975,7 +20154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB45FA1E-6A60-7641-A8BA-283945EF1681}">
   <dimension ref="B1:IW36"/>
   <sheetViews>
-    <sheetView zoomScale="47" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="47" workbookViewId="0">
       <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
@@ -25168,10 +25347,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="70" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:6" ht="70" customHeight="1">
-      <c r="B2" s="353" t="s">
+      <c r="B2" s="355" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="354"/>
+      <c r="C2" s="356"/>
       <c r="D2" s="289"/>
       <c r="E2" s="283" t="s">
         <v>194</v>
@@ -25181,10 +25360,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="70" customHeight="1">
-      <c r="B3" s="351" t="s">
+      <c r="B3" s="353" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="352"/>
+      <c r="C3" s="354"/>
       <c r="D3" s="289"/>
       <c r="E3" s="285" t="s">
         <v>194</v>
@@ -25194,10 +25373,10 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="70" customHeight="1">
-      <c r="B4" s="351" t="s">
+      <c r="B4" s="353" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="352"/>
+      <c r="C4" s="354"/>
       <c r="D4" s="289"/>
       <c r="E4" s="285" t="s">
         <v>194</v>
@@ -25207,10 +25386,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="70" customHeight="1">
-      <c r="B5" s="351" t="s">
+      <c r="B5" s="353" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="352"/>
+      <c r="C5" s="354"/>
       <c r="D5" s="289"/>
       <c r="E5" s="285" t="s">
         <v>194</v>
@@ -25220,10 +25399,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="70" customHeight="1">
-      <c r="B6" s="351" t="s">
+      <c r="B6" s="353" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="352"/>
+      <c r="C6" s="354"/>
       <c r="D6" s="289"/>
       <c r="E6" s="285" t="s">
         <v>194</v>
@@ -25233,10 +25412,10 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="70" customHeight="1" thickBot="1">
-      <c r="B7" s="351" t="s">
+      <c r="B7" s="353" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="352"/>
+      <c r="C7" s="354"/>
       <c r="D7" s="289"/>
       <c r="E7" s="287" t="s">
         <v>194</v>
@@ -25246,46 +25425,46 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="70" customHeight="1">
-      <c r="B8" s="351" t="s">
+      <c r="B8" s="353" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="352"/>
+      <c r="C8" s="354"/>
       <c r="D8" s="289"/>
       <c r="E8" s="289"/>
       <c r="F8" s="289"/>
     </row>
     <row r="9" spans="2:6" ht="70" customHeight="1">
-      <c r="B9" s="351" t="s">
+      <c r="B9" s="353" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="352"/>
+      <c r="C9" s="354"/>
       <c r="D9" s="289"/>
       <c r="E9" s="289"/>
       <c r="F9" s="289"/>
     </row>
     <row r="10" spans="2:6" ht="70" customHeight="1">
-      <c r="B10" s="351" t="s">
+      <c r="B10" s="353" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="352"/>
+      <c r="C10" s="354"/>
       <c r="D10" s="289"/>
       <c r="E10" s="289"/>
       <c r="F10" s="289"/>
     </row>
     <row r="11" spans="2:6" ht="70" customHeight="1">
-      <c r="B11" s="351" t="s">
+      <c r="B11" s="353" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="352"/>
+      <c r="C11" s="354"/>
       <c r="D11" s="289"/>
       <c r="E11" s="289"/>
       <c r="F11" s="289"/>
     </row>
     <row r="12" spans="2:6" ht="70" customHeight="1" thickBot="1">
-      <c r="B12" s="355" t="s">
+      <c r="B12" s="357" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="356"/>
+      <c r="C12" s="358"/>
       <c r="D12" s="289"/>
       <c r="E12" s="289"/>
       <c r="F12" s="289"/>
@@ -25315,7 +25494,7 @@
   <dimension ref="B1:AC8"/>
   <sheetViews>
     <sheetView zoomScale="220" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16"/>
@@ -25435,28 +25614,28 @@
       <c r="U3" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="V3" s="357" t="s">
+      <c r="V3" s="359" t="s">
         <v>303</v>
       </c>
-      <c r="W3" s="359" t="s">
+      <c r="W3" s="361" t="s">
         <v>224</v>
       </c>
-      <c r="X3" s="359" t="s">
+      <c r="X3" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="Y3" s="360" t="s">
+      <c r="Y3" s="362" t="s">
         <v>227</v>
       </c>
-      <c r="Z3" s="360" t="s">
+      <c r="Z3" s="362" t="s">
         <v>305</v>
       </c>
-      <c r="AA3" s="359" t="s">
+      <c r="AA3" s="361" t="s">
         <v>226</v>
       </c>
-      <c r="AB3" s="359" t="s">
+      <c r="AB3" s="361" t="s">
         <v>307</v>
       </c>
-      <c r="AC3" s="357" t="s">
+      <c r="AC3" s="359" t="s">
         <v>304</v>
       </c>
     </row>
@@ -25512,14 +25691,14 @@
       <c r="U4" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="V4" s="358"/>
-      <c r="W4" s="359"/>
-      <c r="X4" s="359"/>
-      <c r="Y4" s="360"/>
-      <c r="Z4" s="360"/>
-      <c r="AA4" s="359"/>
-      <c r="AB4" s="359"/>
-      <c r="AC4" s="358"/>
+      <c r="V4" s="360"/>
+      <c r="W4" s="361"/>
+      <c r="X4" s="361"/>
+      <c r="Y4" s="362"/>
+      <c r="Z4" s="362"/>
+      <c r="AA4" s="361"/>
+      <c r="AB4" s="361"/>
+      <c r="AC4" s="360"/>
     </row>
     <row r="5" spans="2:29" ht="18" thickTop="1" thickBot="1">
       <c r="B5" s="20" t="s">
